--- a/ixigo/src/test/resources/ExcelData/Inputs.xlsx
+++ b/ixigo/src/test/resources/ExcelData/Inputs.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{81036E7C-69CD-44FB-9DC4-DB95681FD19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4E14036E-8D73-40B2-B4C1-9020C78E1EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{913123DE-C9C9-4DC9-A759-A1786C569119}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{913123DE-C9C9-4DC9-A759-A1786C569119}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,8 +63,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1DB4D0-5E05-4709-BBBF-410A31E0289C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -420,4 +424,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9363059D-F71B-4148-B251-7E016744E869}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="A1 A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>9618120689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ixigo/src/test/resources/ExcelData/Inputs.xlsx
+++ b/ixigo/src/test/resources/ExcelData/Inputs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4E14036E-8D73-40B2-B4C1-9020C78E1EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1D668364-F570-4313-84AB-55686B241E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{913123DE-C9C9-4DC9-A759-A1786C569119}"/>
   </bookViews>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9363059D-F71B-4148-B251-7E016744E869}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1 A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,7 +446,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>9618120689</v>
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>12345678923</v>
       </c>
     </row>
   </sheetData>
